--- a/Team PPTs/Vani/Compounding spread sheet-Vani.xlsx
+++ b/Team PPTs/Vani/Compounding spread sheet-Vani.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vani\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkuma\Documents\Conference NOV 2023\Team PPTs\Vani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B14D5381-DDFD-4920-A972-A81E931C71AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE438B3-5CB6-4D10-9608-F72E80EE6C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3801DB12-E459-4954-A1D9-8788AB9155CE}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +147,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -169,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -229,31 +237,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACA190B-7FB0-42E7-8581-15BF2180A3C3}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,194 +762,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="C20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="B26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="C26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="4" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="D31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="4" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
+  <mergeCells count="51">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B36:D38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>